--- a/database/data_to_add/added/2020-11-13k/Marthur_1973_tbl4.xlsx
+++ b/database/data_to_add/added/2020-11-13k/Marthur_1973_tbl4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Project\Extracted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\added\2020-11-13k\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA3C742C-D58C-42CD-8887-37E06A1FEF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C706847-3C2D-46D4-A81B-B937F80392D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -335,7 +335,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +620,7 @@
   <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
